--- a/项目管理过程组与知识领域.xlsx
+++ b/项目管理过程组与知识领域.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -145,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干系人管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规划采购管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,14 +190,22 @@
   </si>
   <si>
     <t xml:space="preserve">确认范围                  控制范围           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目干系人管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,11 +274,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -606,19 +606,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G10:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="39.375" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
     <col min="12" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,9 +642,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="7:12" ht="30">
+    <row r="11" spans="7:12" ht="28.5">
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -662,18 +662,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="7:12" ht="60">
+    <row r="12" spans="7:12" ht="57">
       <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="7:12" ht="90">
+    </row>
+    <row r="13" spans="7:12" ht="85.5">
       <c r="G13" t="s">
         <v>11</v>
       </c>
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="7:12" ht="45">
+    <row r="14" spans="7:12" ht="42.75">
       <c r="G14" t="s">
         <v>14</v>
       </c>
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="7:12" ht="45">
+    <row r="16" spans="7:12" ht="42.75">
       <c r="G16" t="s">
         <v>21</v>
       </c>
@@ -734,7 +734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="7:12" ht="75">
+    <row r="18" spans="7:12" ht="71.25">
       <c r="G18" t="s">
         <v>28</v>
       </c>
@@ -747,36 +747,36 @@
     </row>
     <row r="19" spans="7:12">
       <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>34</v>
-      </c>
-      <c r="K19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="7:12">
       <c r="G20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>38</v>
-      </c>
-      <c r="J20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理过程组与知识领域.xlsx
+++ b/项目管理过程组与知识领域.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PMP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500"/>
   </bookViews>
@@ -204,8 +209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +287,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -606,15 +619,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G10:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="9" max="9" width="39.375" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
@@ -622,167 +641,167 @@
     <col min="12" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="7:12">
-      <c r="G10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="J10" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="L10" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="7:12" ht="28.5">
-      <c r="G11" t="s">
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="J11" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="7:12" ht="57">
-      <c r="G12" t="s">
+    <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="7:12" ht="85.5">
-      <c r="G13" t="s">
+    <row r="4" spans="1:6" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="7:12" ht="42.75">
-      <c r="G14" t="s">
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="7:12">
-      <c r="G15" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="K15" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="7:12" ht="42.75">
-      <c r="G16" t="s">
+    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="I16" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="7:12">
-      <c r="G17" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="I17" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="J17" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="K17" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="7:12" ht="71.25">
-      <c r="G18" t="s">
+    <row r="9" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K18" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="7:12">
-      <c r="G19" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="I19" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="J19" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="K19" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="L19" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="7:12">
-      <c r="G20" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="H20" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="I20" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="J20" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="K20" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
